--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_04/1.4.4_Arrows.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_04/1.4.4_Arrows.xlsx
@@ -5,18 +5,24 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E771A6A5-8294-4EDC-B5AD-A4B0D990EC1A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D94BA95-3599-4F9C-ACEC-9413CE2245F4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -965,7 +971,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -975,7 +981,7 @@
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.625" customWidth="1"/>
     <col min="13" max="13" width="12.875" customWidth="1"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_04/1.4.4_Arrows.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_04/1.4.4_Arrows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D94BA95-3599-4F9C-ACEC-9413CE2245F4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C5034A-BEFA-492C-B904-631747472395}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -981,7 +981,7 @@
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.625" customWidth="1"/>
     <col min="13" max="13" width="12.875" customWidth="1"/>
